--- a/data/trans_orig/P16B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DFA3BC4-9765-4DF8-99D7-3281EBE674CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37613CDB-B816-4948-89D3-6E6B00126455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F515D2E-FE2E-4298-89AE-416126805C10}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3817D01-F9B5-4450-B31C-712FF8EB7744}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="167">
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2007 (Tasa respuesta: 4,02%)</t>
   </si>
@@ -127,37 +127,37 @@
     <t>95,88%</t>
   </si>
   <si>
-    <t>79,73%</t>
+    <t>82,74%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>84,2%</t>
+    <t>85,65%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>88,34%</t>
+    <t>88,16%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>20,27%</t>
+    <t>17,26%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>15,8%</t>
+    <t>14,35%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>11,66%</t>
+    <t>11,84%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -181,34 +181,31 @@
     <t>94,8%</t>
   </si>
   <si>
-    <t>83,26%</t>
+    <t>83,93%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>90,44%</t>
+    <t>91,78%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
     <t>99,11%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>16,74%</t>
+    <t>16,07%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>9,56%</t>
+    <t>8,22%</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -217,10 +214,7 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>92,45%</t>
   </si>
   <si>
     <t>99,15%</t>
@@ -229,7 +223,7 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>95,68%</t>
+    <t>96,0%</t>
   </si>
   <si>
     <t>98,13%</t>
@@ -244,13 +238,13 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>8,25%</t>
+    <t>7,55%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,32%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>1,87%</t>
@@ -340,13 +334,13 @@
     <t>97,29%</t>
   </si>
   <si>
-    <t>88,87%</t>
+    <t>88,77%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>89,13%</t>
+    <t>89,94%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -355,37 +349,37 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>11,13%</t>
+    <t>11,23%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>10,87%</t>
+    <t>10,06%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>90,83%</t>
+    <t>90,57%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>94,53%</t>
+    <t>94,26%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>9,17%</t>
+    <t>9,43%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>5,47%</t>
+    <t>5,74%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -394,16 +388,16 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,51%</t>
+    <t>96,91%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -415,10 +409,10 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -427,7 +421,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,49%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2015 (Tasa respuesta: 2,48%)</t>
@@ -454,25 +448,25 @@
     <t>90,94%</t>
   </si>
   <si>
-    <t>65,98%</t>
+    <t>66,75%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>66,83%</t>
+    <t>72,45%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>34,02%</t>
+    <t>33,25%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>33,17%</t>
+    <t>27,55%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -523,13 +517,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,46%</t>
+    <t>93,51%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,31%</t>
+    <t>95,48%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -538,13 +532,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,54%</t>
+    <t>6,49%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,69%</t>
+    <t>4,52%</t>
   </si>
 </sst>
 </file>
@@ -956,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA9120E-CCF7-4637-BAAD-308B92180D43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E304133-E51B-48E1-928D-C973E290F59C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1733,10 +1727,10 @@
         <v>50</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,13 +1745,13 @@
         <v>1663</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1766,13 +1760,13 @@
         <v>931</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1781,13 +1775,13 @@
         <v>2594</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,10 +1852,10 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -1870,10 +1864,10 @@
         <v>169281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -1885,13 +1879,13 @@
         <v>261843</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1900,13 @@
         <v>2730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1921,13 +1915,13 @@
         <v>2251</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1936,13 +1930,13 @@
         <v>4981</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,7 +1992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2019,7 +2013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748C944E-CDC6-4435-B127-7A5D9B0E16DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB7E956-2993-4062-8498-D48D0CEB90D1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2036,7 +2030,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2146,7 +2140,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2158,10 +2152,10 @@
         <v>7000</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2173,10 +2167,10 @@
         <v>8930</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2200,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2209,13 +2203,13 @@
         <v>1140</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2224,13 +2218,13 @@
         <v>1140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,7 +2295,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2316,7 +2310,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2331,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2355,7 +2349,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2370,7 +2364,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2385,7 +2379,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,7 +2450,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2471,7 +2465,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2486,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2510,7 +2504,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2525,7 +2519,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2540,7 +2534,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2623,10 +2617,10 @@
         <v>35821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2638,10 +2632,10 @@
         <v>49869</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2665,7 +2659,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2674,13 +2668,13 @@
         <v>999</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2689,13 +2683,13 @@
         <v>999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,10 +2772,10 @@
         <v>66182</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -2793,10 +2787,10 @@
         <v>84925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -2829,13 +2823,13 @@
         <v>1043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2844,13 +2838,13 @@
         <v>1043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,7 +2915,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -2933,13 +2927,13 @@
         <v>203337</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>250</v>
@@ -2948,13 +2942,13 @@
         <v>272799</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2969,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2984,13 +2978,13 @@
         <v>3182</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2999,13 +2993,13 @@
         <v>3182</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3055,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3082,7 +3076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4DEA69-8509-4A5B-92F0-9893EC872758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DBF809-C2DC-4FA8-AAFF-AA72515CBEE0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,7 +3093,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3209,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3224,7 +3218,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3239,7 +3233,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3263,7 +3257,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3278,7 +3272,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3293,7 +3287,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,7 +3358,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3376,10 +3370,10 @@
         <v>17582</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3391,10 +3385,10 @@
         <v>22230</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3418,7 +3412,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3427,13 +3421,13 @@
         <v>1753</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3442,13 +3436,13 @@
         <v>1753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3534,7 +3528,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3549,7 +3543,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3573,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3588,7 +3582,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3603,7 +3597,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,7 +3668,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3689,7 +3683,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3704,7 +3698,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3728,7 +3722,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3743,7 +3737,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3758,7 +3752,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,7 +3823,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3844,7 +3838,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3859,7 +3853,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3883,7 +3877,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3898,7 +3892,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3913,7 +3907,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3996,10 +3990,10 @@
         <v>130554</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4011,10 +4005,10 @@
         <v>175749</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4038,7 +4032,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4047,13 +4041,13 @@
         <v>1753</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4062,13 +4056,13 @@
         <v>1753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4118,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37613CDB-B816-4948-89D3-6E6B00126455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41DBC91-F1A1-4E08-9136-90BC5AB445B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3817D01-F9B5-4450-B31C-712FF8EB7744}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBB51231-6373-487B-B173-B6A4F59672DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="169">
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2007 (Tasa respuesta: 4,02%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -100,7 +100,7 @@
     <t>26,42%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -121,46 +121,46 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>82,74%</t>
+    <t>82,27%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>85,65%</t>
+    <t>85,32%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>88,16%</t>
+    <t>89,64%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>17,26%</t>
+    <t>17,73%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>14,35%</t>
+    <t>14,68%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -181,79 +181,85 @@
     <t>94,8%</t>
   </si>
   <si>
-    <t>83,93%</t>
+    <t>83,69%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>91,78%</t>
+    <t>92,03%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>99,11%</t>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>16,07%</t>
+    <t>16,31%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>8,22%</t>
+    <t>7,97%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>95,45%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -268,13 +274,13 @@
     <t>86,0%</t>
   </si>
   <si>
-    <t>54,87%</t>
+    <t>41,45%</t>
   </si>
   <si>
     <t>88,68%</t>
   </si>
   <si>
-    <t>53,73%</t>
+    <t>53,09%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -283,13 +289,13 @@
     <t>14,0%</t>
   </si>
   <si>
-    <t>45,13%</t>
+    <t>58,55%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>46,27%</t>
+    <t>46,91%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -334,13 +340,13 @@
     <t>97,29%</t>
   </si>
   <si>
-    <t>88,77%</t>
+    <t>82,79%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>89,94%</t>
+    <t>89,52%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -349,37 +355,37 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>11,23%</t>
+    <t>17,21%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>10,06%</t>
+    <t>10,48%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>90,57%</t>
+    <t>90,77%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>94,26%</t>
+    <t>93,52%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>9,43%</t>
+    <t>9,23%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -388,7 +394,7 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>95,83%</t>
+    <t>95,47%</t>
   </si>
   <si>
     <t>99,52%</t>
@@ -397,7 +403,7 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,91%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -412,7 +418,7 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,17%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -421,10 +427,10 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para el reuma recetados en 2015 (Tasa respuesta: 2,48%)</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para el reuma recetados en 2016 (Tasa respuesta: 2,48%)</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -448,25 +454,25 @@
     <t>90,94%</t>
   </si>
   <si>
-    <t>66,75%</t>
+    <t>65,91%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>72,45%</t>
+    <t>67,06%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>33,25%</t>
+    <t>34,09%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>27,55%</t>
+    <t>32,94%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -517,13 +523,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,51%</t>
+    <t>93,26%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>95,48%</t>
+    <t>94,13%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -532,13 +538,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,49%</t>
+    <t>6,74%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>4,52%</t>
+    <t>5,87%</t>
   </si>
 </sst>
 </file>
@@ -950,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E304133-E51B-48E1-928D-C973E290F59C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ACB917-675C-470D-A6F5-26C5D14EE74F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1727,10 +1733,10 @@
         <v>50</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,13 +1751,13 @@
         <v>1663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1760,13 +1766,13 @@
         <v>931</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1775,13 +1781,13 @@
         <v>2594</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,10 +1858,10 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -1864,10 +1870,10 @@
         <v>169281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -1879,13 +1885,13 @@
         <v>261843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,13 +1906,13 @@
         <v>2730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1915,13 +1921,13 @@
         <v>2251</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1930,13 +1936,13 @@
         <v>4981</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,7 +1998,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB7E956-2993-4062-8498-D48D0CEB90D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C194147-8E48-4CBD-B152-16024F15A62B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2030,7 +2036,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2140,7 +2146,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2152,10 +2158,10 @@
         <v>7000</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2167,10 +2173,10 @@
         <v>8930</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2194,7 +2200,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2203,13 +2209,13 @@
         <v>1140</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2218,13 +2224,13 @@
         <v>1140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2310,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2325,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2349,7 +2355,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2364,7 +2370,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2379,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,7 +2456,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2465,7 +2471,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2480,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2504,7 +2510,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2519,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2534,7 +2540,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,7 +2611,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2617,10 +2623,10 @@
         <v>35821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2632,10 +2638,10 @@
         <v>49869</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2659,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2668,13 +2674,13 @@
         <v>999</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2683,13 +2689,13 @@
         <v>999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,10 +2778,10 @@
         <v>66182</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -2787,10 +2793,10 @@
         <v>84925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -2823,13 +2829,13 @@
         <v>1043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2838,13 +2844,13 @@
         <v>1043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -2927,13 +2933,13 @@
         <v>203337</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>250</v>
@@ -2942,13 +2948,13 @@
         <v>272799</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,7 +2975,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2978,13 +2984,13 @@
         <v>3182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2993,13 +2999,13 @@
         <v>3182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,7 +3061,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DBF809-C2DC-4FA8-AAFF-AA72515CBEE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26C608E-6734-4647-B512-A263089E77FE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3093,7 +3099,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3203,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3218,7 +3224,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3233,7 +3239,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3257,7 +3263,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3272,7 +3278,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3287,7 +3293,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,7 +3364,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3370,10 +3376,10 @@
         <v>17582</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3385,10 +3391,10 @@
         <v>22230</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3412,7 +3418,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3421,13 +3427,13 @@
         <v>1753</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3436,13 +3442,13 @@
         <v>1753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,7 +3519,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3528,7 +3534,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3543,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3567,7 +3573,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3582,7 +3588,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3597,7 +3603,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,7 +3674,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3683,7 +3689,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3698,7 +3704,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3722,7 +3728,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3737,7 +3743,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3752,7 +3758,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3829,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3838,7 +3844,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3853,7 +3859,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3877,7 +3883,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3892,7 +3898,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3907,7 +3913,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3984,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3990,10 +3996,10 @@
         <v>130554</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4005,10 +4011,10 @@
         <v>175749</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4032,7 +4038,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4041,13 +4047,13 @@
         <v>1753</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4056,13 +4062,13 @@
         <v>1753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,7 +4124,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41DBC91-F1A1-4E08-9136-90BC5AB445B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BFD870-FDE0-4F95-8DCB-83E466DEBDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBB51231-6373-487B-B173-B6A4F59672DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F53D141-0C1F-4A80-94E2-DFB700341415}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -127,37 +127,37 @@
     <t>95,88%</t>
   </si>
   <si>
-    <t>82,27%</t>
+    <t>79,73%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>85,32%</t>
+    <t>84,2%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>89,64%</t>
+    <t>88,34%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>17,73%</t>
+    <t>20,27%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>14,68%</t>
+    <t>15,8%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>10,36%</t>
+    <t>11,66%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -181,85 +181,85 @@
     <t>94,8%</t>
   </si>
   <si>
-    <t>83,69%</t>
+    <t>83,26%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>92,03%</t>
+    <t>90,44%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>16,31%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>7,97%</t>
+    <t>9,56%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>95,45%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -274,13 +274,13 @@
     <t>86,0%</t>
   </si>
   <si>
-    <t>41,45%</t>
+    <t>54,87%</t>
   </si>
   <si>
     <t>88,68%</t>
   </si>
   <si>
-    <t>53,09%</t>
+    <t>53,73%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -289,13 +289,13 @@
     <t>14,0%</t>
   </si>
   <si>
-    <t>58,55%</t>
+    <t>45,13%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>46,91%</t>
+    <t>46,27%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -340,13 +340,13 @@
     <t>97,29%</t>
   </si>
   <si>
-    <t>82,79%</t>
+    <t>88,87%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>89,52%</t>
+    <t>89,13%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -355,37 +355,37 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>17,21%</t>
+    <t>11,13%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>10,48%</t>
+    <t>10,87%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>90,77%</t>
+    <t>90,83%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>93,52%</t>
+    <t>94,53%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>9,23%</t>
+    <t>9,17%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -394,16 +394,16 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,89%</t>
+    <t>96,51%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -415,10 +415,10 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -427,7 +427,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>3,49%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2016 (Tasa respuesta: 2,48%)</t>
@@ -454,25 +454,25 @@
     <t>90,94%</t>
   </si>
   <si>
-    <t>65,91%</t>
+    <t>65,98%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>67,06%</t>
+    <t>66,83%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>34,09%</t>
+    <t>34,02%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>32,94%</t>
+    <t>33,17%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -523,13 +523,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,26%</t>
+    <t>93,46%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,13%</t>
+    <t>94,31%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -538,13 +538,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>6,54%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,87%</t>
+    <t>5,69%</t>
   </si>
 </sst>
 </file>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ACB917-675C-470D-A6F5-26C5D14EE74F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA70E7F-4CF0-455A-8290-3ED4CDE8B6C2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2019,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C194147-8E48-4CBD-B152-16024F15A62B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14B7D6-FD48-4854-848C-819323EB5BC3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3082,7 +3082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26C608E-6734-4647-B512-A263089E77FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11612829-EA0D-4053-8C84-A9826DEF9F5F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BFD870-FDE0-4F95-8DCB-83E466DEBDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C3C149-7C61-41CB-8A6F-4B6277E110A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F53D141-0C1F-4A80-94E2-DFB700341415}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F662AAF0-5D52-470D-808B-371F3AAE1441}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="156">
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2007 (Tasa respuesta: 4,02%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,13 +76,16 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>55,59%</t>
+    <t>91,36%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>73,58%</t>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,84 +97,72 @@
     <t>0%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
     <t>3,19%</t>
   </si>
   <si>
@@ -268,52 +259,34 @@
     <t>Porcentajes de medicamentos para el reuma recetados en 2012 (Tasa respuesta: 3,89%)</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -433,46 +406,34 @@
     <t>Porcentajes de medicamentos para el reuma recetados en 2016 (Tasa respuesta: 2,48%)</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -956,8 +917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA70E7F-4CF0-455A-8290-3ED4CDE8B6C2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB782D20-2013-4099-A01A-0E4D6D92EB1D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1074,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>3054</v>
+        <v>20352</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1089,31 +1050,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>2637</v>
+        <v>25846</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>5691</v>
+        <v>46198</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1122,7 +1083,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1131,43 +1092,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1176,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>3054</v>
+        <v>20352</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1191,10 +1152,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I6" s="7">
-        <v>2637</v>
+        <v>25846</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1206,10 +1167,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="N6" s="7">
-        <v>5691</v>
+        <v>46198</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1223,106 +1184,106 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>17298</v>
+        <v>24846</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>23208</v>
+        <v>43965</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>40507</v>
+        <v>68811</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1067</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>2387</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7">
-        <v>17298</v>
+        <v>25913</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1346,10 +1307,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I9" s="7">
-        <v>23208</v>
+        <v>45285</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1361,10 +1322,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>40507</v>
+        <v>71198</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1378,106 +1339,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>24846</v>
+        <v>17059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>43965</v>
+        <v>41546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>68811</v>
+        <v>58606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1067</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>2387</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7">
-        <v>25913</v>
+        <v>17059</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1501,10 +1462,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>45285</v>
+        <v>41546</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1516,10 +1477,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N12" s="7">
-        <v>71198</v>
+        <v>58606</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1533,106 +1494,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>17059</v>
+        <v>30306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>41546</v>
+        <v>57924</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="N13" s="7">
-        <v>58606</v>
+        <v>88230</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2594</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7">
-        <v>17059</v>
+        <v>31969</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1656,10 +1617,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I15" s="7">
-        <v>41546</v>
+        <v>58855</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1671,10 +1632,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="N15" s="7">
-        <v>58606</v>
+        <v>90824</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1688,106 +1649,106 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>30306</v>
+        <v>92562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="I16" s="7">
-        <v>57924</v>
+        <v>169281</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="N16" s="7">
-        <v>88230</v>
+        <v>261843</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2730</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>1663</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
       <c r="I17" s="7">
-        <v>931</v>
+        <v>2251</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>2594</v>
+        <v>4981</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,10 +1757,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D18" s="7">
-        <v>31969</v>
+        <v>95292</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1811,10 +1772,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="I18" s="7">
-        <v>58855</v>
+        <v>171532</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1826,10 +1787,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="N18" s="7">
-        <v>90824</v>
+        <v>266824</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1842,171 +1803,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>95</v>
-      </c>
-      <c r="D19" s="7">
-        <v>92562</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="7">
-        <v>162</v>
-      </c>
-      <c r="I19" s="7">
-        <v>169281</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>257</v>
-      </c>
-      <c r="N19" s="7">
-        <v>261843</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2730</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2251</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4981</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>98</v>
-      </c>
-      <c r="D21" s="7">
-        <v>95292</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>164</v>
-      </c>
-      <c r="I21" s="7">
-        <v>171532</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>262</v>
-      </c>
-      <c r="N21" s="7">
-        <v>266824</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2019,8 +1824,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14B7D6-FD48-4854-848C-819323EB5BC3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8D3F8F-4A74-49C8-8D48-C78E486A7815}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2036,7 +1841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2137,46 +1942,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>1931</v>
+        <v>12434</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>33</v>
+      </c>
+      <c r="I4" s="7">
+        <v>35910</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>45</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48344</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7000</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>8</v>
-      </c>
-      <c r="N4" s="7">
-        <v>8930</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2185,7 +1990,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2194,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2209,13 +2014,13 @@
         <v>1140</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2224,13 +2029,13 @@
         <v>1140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,10 +2044,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>1931</v>
+        <v>12434</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2254,10 +2059,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I6" s="7">
-        <v>8140</v>
+        <v>37050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2269,10 +2074,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="N6" s="7">
-        <v>10070</v>
+        <v>49484</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2286,52 +2091,52 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>10503</v>
+        <v>24239</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I7" s="7">
-        <v>28910</v>
+        <v>65423</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="N7" s="7">
-        <v>39413</v>
+        <v>89662</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2340,7 +2145,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2349,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2364,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2379,13 +2184,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,10 +2199,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>10503</v>
+        <v>24239</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2409,10 +2214,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I9" s="7">
-        <v>28910</v>
+        <v>65423</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2424,10 +2229,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="N9" s="7">
-        <v>39413</v>
+        <v>89662</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2441,61 +2246,61 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>24239</v>
+        <v>14047</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>33</v>
+      </c>
+      <c r="I10" s="7">
+        <v>35821</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>44</v>
+      </c>
+      <c r="N10" s="7">
+        <v>49869</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>60</v>
-      </c>
-      <c r="I10" s="7">
-        <v>65423</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>82</v>
-      </c>
-      <c r="N10" s="7">
-        <v>89662</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2504,22 +2309,22 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>999</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
@@ -2528,19 +2333,19 @@
         <v>96</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,10 +2354,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>24239</v>
+        <v>14047</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2564,10 +2369,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="I12" s="7">
-        <v>65423</v>
+        <v>36820</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2579,10 +2384,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="N12" s="7">
-        <v>89662</v>
+        <v>50868</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2596,31 +2401,31 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>14047</v>
+        <v>18743</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>35821</v>
+        <v>66182</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>99</v>
@@ -2632,10 +2437,10 @@
         <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="N13" s="7">
-        <v>49869</v>
+        <v>84925</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>101</v>
@@ -2650,7 +2455,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2659,43 +2464,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>999</v>
+        <v>1043</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>999</v>
+        <v>1043</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,10 +2509,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D15" s="7">
-        <v>14047</v>
+        <v>18743</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2719,10 +2524,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>36820</v>
+        <v>67225</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2734,10 +2539,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N15" s="7">
-        <v>50868</v>
+        <v>85968</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2751,31 +2556,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>18743</v>
+        <v>69463</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="I16" s="7">
-        <v>66182</v>
+        <v>203337</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>108</v>
@@ -2784,28 +2589,28 @@
         <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="N16" s="7">
-        <v>84925</v>
+        <v>272799</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2814,43 +2619,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1043</v>
+        <v>3182</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>1043</v>
+        <v>3182</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,10 +2664,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7">
-        <v>18743</v>
+        <v>69463</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2874,10 +2679,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="I18" s="7">
-        <v>67225</v>
+        <v>206519</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2889,10 +2694,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="N18" s="7">
-        <v>85968</v>
+        <v>275981</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2905,171 +2710,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>62</v>
-      </c>
-      <c r="D19" s="7">
-        <v>69463</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>188</v>
-      </c>
-      <c r="I19" s="7">
-        <v>203337</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M19" s="7">
-        <v>250</v>
-      </c>
-      <c r="N19" s="7">
-        <v>272799</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3182</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3182</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>62</v>
-      </c>
-      <c r="D21" s="7">
-        <v>69463</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>191</v>
-      </c>
-      <c r="I21" s="7">
-        <v>206519</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>253</v>
-      </c>
-      <c r="N21" s="7">
-        <v>275981</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3082,8 +2731,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11612829-EA0D-4053-8C84-A9826DEF9F5F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B802C982-554C-4DCA-A238-C97155E1C377}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3099,7 +2748,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3200,55 +2849,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>4108</v>
+        <v>8756</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>5124</v>
+        <v>22706</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>9232</v>
+        <v>31462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3257,43 +2906,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,10 +2951,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>4108</v>
+        <v>8756</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3317,10 +2966,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>5124</v>
+        <v>24459</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3332,10 +2981,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="N6" s="7">
-        <v>9232</v>
+        <v>33215</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3349,16 +2998,16 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>4648</v>
+        <v>15135</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -3370,40 +3019,40 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>17582</v>
+        <v>40617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>22230</v>
+        <v>55753</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3412,43 +3061,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1753</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1753</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,10 +3106,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>4648</v>
+        <v>15135</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3472,10 +3121,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I9" s="7">
-        <v>19335</v>
+        <v>40617</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3487,10 +3136,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N9" s="7">
-        <v>23983</v>
+        <v>55753</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3504,52 +3153,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>15135</v>
+        <v>13250</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>40617</v>
+        <v>29733</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>55753</v>
+        <v>42984</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3558,7 +3207,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3567,13 +3216,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3582,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3597,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,10 +3261,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>15135</v>
+        <v>13250</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3627,10 +3276,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I12" s="7">
-        <v>40617</v>
+        <v>29733</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3642,10 +3291,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N12" s="7">
-        <v>55753</v>
+        <v>42984</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3659,37 +3308,37 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>13250</v>
+        <v>8054</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>29733</v>
+        <v>37498</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3698,13 +3347,13 @@
         <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>42984</v>
+        <v>45551</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3713,7 +3362,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3722,13 +3371,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3737,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3752,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>13250</v>
+        <v>8054</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3782,10 +3431,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I15" s="7">
-        <v>29733</v>
+        <v>37498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3800,7 +3449,7 @@
         <v>40</v>
       </c>
       <c r="N15" s="7">
-        <v>42984</v>
+        <v>45551</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3814,61 +3463,61 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>8054</v>
+        <v>45195</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="I16" s="7">
-        <v>37498</v>
+        <v>130554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="N16" s="7">
-        <v>45551</v>
+        <v>175749</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3877,43 +3526,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,10 +3571,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>8054</v>
+        <v>45195</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3937,10 +3586,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="I18" s="7">
-        <v>37498</v>
+        <v>132307</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3952,10 +3601,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="N18" s="7">
-        <v>45551</v>
+        <v>177502</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3968,171 +3617,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>46</v>
-      </c>
-      <c r="D19" s="7">
-        <v>45195</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>116</v>
-      </c>
-      <c r="I19" s="7">
-        <v>130554</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>162</v>
-      </c>
-      <c r="N19" s="7">
-        <v>175749</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1753</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1753</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>46</v>
-      </c>
-      <c r="D21" s="7">
-        <v>45195</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>117</v>
-      </c>
-      <c r="I21" s="7">
-        <v>132307</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>163</v>
-      </c>
-      <c r="N21" s="7">
-        <v>177502</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
